--- a/Matriz de Artigos.xlsx
+++ b/Matriz de Artigos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11640"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Artigos" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -42,18 +42,12 @@
     <t>Introdução ao NHibernate (Explicação básica)</t>
   </si>
   <si>
-    <t>Introdução aos Relacionamentos com o NHibernate (Demonstrar um exemplo prático utilizando todos os relacionamentos)</t>
-  </si>
-  <si>
     <t>Diferenças entre o NHibernate e o Spring.NET Data (Demonstrar as diferenças entre o uso do NHibernate implementado pelo Spring.NET e pelo NHibernate)</t>
   </si>
   <si>
     <t xml:space="preserve">Integração entre Spring.NET e NHibernate </t>
   </si>
   <si>
-    <t>Integração entre Spring.NET e ASP.NET MVC3</t>
-  </si>
-  <si>
     <t>ASP.NET MVC4 - O que há de novo?</t>
   </si>
   <si>
@@ -219,18 +213,6 @@
     <t>Backbone.js</t>
   </si>
   <si>
-    <t>Exemplo prático utilizando NHibernate com padrões de Projeto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exemplo prático utilizando persistência com Nhibernate, seus relacionamentos com padrões de Projeto </t>
-  </si>
-  <si>
-    <t>Como funciona o Coletor de Lixo</t>
-  </si>
-  <si>
-    <t>Como debugar uma aplicação utilizando o Eclipse</t>
-  </si>
-  <si>
     <t>Java</t>
   </si>
   <si>
@@ -247,13 +229,49 @@
   </si>
   <si>
     <t>Utilizando de forma sucinta o Padrão de Projeto Fachada</t>
+  </si>
+  <si>
+    <t>Utilizando as Heurísticas de Nielson</t>
+  </si>
+  <si>
+    <t>Integração entre Spring.NET e ASP.NET MVC</t>
+  </si>
+  <si>
+    <t>Persistência com Nhibernate</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
+  </si>
+  <si>
+    <t>Tarefa</t>
+  </si>
+  <si>
+    <t>Criar Diagrama de Dados</t>
+  </si>
+  <si>
+    <t>Criar Componentes do Sistema</t>
+  </si>
+  <si>
+    <t>Criar Casos de Testes</t>
+  </si>
+  <si>
+    <t>Total Horas</t>
+  </si>
+  <si>
+    <t>Estimativa em horas</t>
+  </si>
+  <si>
+    <t>Total de dias</t>
+  </si>
+  <si>
+    <t>Criar Diagrama de Classes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,16 +279,72 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -278,17 +352,247 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -599,428 +903,554 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="30">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>41420</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>41428</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>46</v>
+      <c r="E2" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="4">
+        <v>41420</v>
+      </c>
+      <c r="D3" s="4">
+        <v>41428</v>
+      </c>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="5">
+        <v>41593</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="6">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6">
+        <v>34</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6">
+        <v>43</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="6">
+        <v>44</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="6"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="6"/>
+      <c r="B45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="6"/>
+      <c r="B46" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="D46" s="2"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="6"/>
+      <c r="B47" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="6"/>
+      <c r="B48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="B46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="B47" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="B48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="C49" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1046,170 +1476,170 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
         <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
         <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
         <v>56</v>
-      </c>
-      <c r="D6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
         <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
         <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
         <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
         <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
         <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
         <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1220,13 +1650,101 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:3">
+      <c r="A7" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A8" s="16">
+        <f>SUM(C:C)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A10" s="16">
+        <f>A8/8</f>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>